--- a/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/Стройгавань/LJtxD4TpaU.xlsx
+++ b/Сайты+что добавил/Список сайтов часть первая/Список сайтов с прайс-листами/Стройгавань/LJtxD4TpaU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22425" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21255" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
